--- a/dataanalysis/data/predictions/1600/07251522_1523.xlsx
+++ b/dataanalysis/data/predictions/1600/07251522_1523.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="165">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-25</t>
   </si>
   <si>
@@ -506,12 +509,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -869,13 +866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA85"/>
+  <dimension ref="A1:AB85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,19 +954,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0.6</v>
@@ -987,7 +987,7 @@
         <v>59136.62</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K2">
         <v>9</v>
@@ -1007,8 +1007,23 @@
       <c r="P2">
         <v>-0.55</v>
       </c>
+      <c r="Q2">
+        <v>0.8</v>
+      </c>
+      <c r="R2">
+        <v>5.27</v>
+      </c>
+      <c r="S2">
+        <v>5.4</v>
+      </c>
       <c r="V2" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1016,22 +1031,25 @@
       <c r="Z2">
         <v>2.702317237854004</v>
       </c>
-      <c r="AA2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-3.12</v>
@@ -1049,7 +1067,7 @@
         <v>65968.67</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K3">
         <v>13</v>
@@ -1069,8 +1087,23 @@
       <c r="P3">
         <v>-0.84</v>
       </c>
+      <c r="Q3">
+        <v>0.05</v>
+      </c>
+      <c r="R3">
+        <v>22.18</v>
+      </c>
+      <c r="S3">
+        <v>0.45</v>
+      </c>
       <c r="V3" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -1078,22 +1111,25 @@
       <c r="Z3">
         <v>2.339509963989258</v>
       </c>
-      <c r="AA3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>2.9</v>
@@ -1111,7 +1147,7 @@
         <v>149436.95</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1131,8 +1167,23 @@
       <c r="P4">
         <v>-0.4</v>
       </c>
+      <c r="Q4">
+        <v>8.92</v>
+      </c>
+      <c r="R4">
+        <v>7.02</v>
+      </c>
+      <c r="S4">
+        <v>9.859999999999999</v>
+      </c>
       <c r="V4" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1140,22 +1191,25 @@
       <c r="Z4">
         <v>-0.3378680646419525</v>
       </c>
-      <c r="AA4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300046</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>3.87</v>
@@ -1173,7 +1227,7 @@
         <v>184789.36</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1193,8 +1247,23 @@
       <c r="P5">
         <v>0.19</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>44.11</v>
+      </c>
+      <c r="S5">
+        <v>0.9399999999999999</v>
+      </c>
       <c r="V5" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1202,22 +1271,25 @@
       <c r="Z5">
         <v>6.160604953765869</v>
       </c>
-      <c r="AA5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300066</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>-4.37</v>
@@ -1235,7 +1307,7 @@
         <v>82753.67999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K6">
         <v>11</v>
@@ -1255,8 +1327,23 @@
       <c r="P6">
         <v>-1.03</v>
       </c>
+      <c r="Q6">
+        <v>2.84</v>
+      </c>
+      <c r="R6">
+        <v>6.62</v>
+      </c>
+      <c r="S6">
+        <v>4.42</v>
+      </c>
       <c r="V6" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1264,22 +1351,25 @@
       <c r="Z6">
         <v>3.834546089172363</v>
       </c>
-      <c r="AA6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300086</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0.66</v>
@@ -1297,7 +1387,7 @@
         <v>155150.98</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1317,8 +1407,23 @@
       <c r="P7">
         <v>-5.04</v>
       </c>
+      <c r="Q7">
+        <v>4.34</v>
+      </c>
+      <c r="R7">
+        <v>8.35</v>
+      </c>
+      <c r="S7">
+        <v>9.720000000000001</v>
+      </c>
       <c r="V7" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1326,22 +1431,25 @@
       <c r="Z7">
         <v>6.145861625671387</v>
       </c>
-      <c r="AA7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300095</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-5.05</v>
@@ -1359,7 +1467,7 @@
         <v>61484.35</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1379,8 +1487,23 @@
       <c r="P8">
         <v>-2.18</v>
       </c>
+      <c r="Q8">
+        <v>1.1</v>
+      </c>
+      <c r="R8">
+        <v>11.17</v>
+      </c>
+      <c r="S8">
+        <v>2.48</v>
+      </c>
       <c r="V8" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1388,22 +1511,25 @@
       <c r="Z8">
         <v>6.477189540863037</v>
       </c>
-      <c r="AA8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300127</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>1.2</v>
@@ -1421,7 +1547,7 @@
         <v>94014.27</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1441,8 +1567,23 @@
       <c r="P9">
         <v>-0.78</v>
       </c>
+      <c r="Q9">
+        <v>-0.32</v>
+      </c>
+      <c r="R9">
+        <v>31.55</v>
+      </c>
+      <c r="S9">
+        <v>1.06</v>
+      </c>
       <c r="V9" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1450,22 +1591,25 @@
       <c r="Z9">
         <v>5.489827156066895</v>
       </c>
-      <c r="AA9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300158</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>8.99</v>
@@ -1483,7 +1627,7 @@
         <v>174069.16</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1503,8 +1647,23 @@
       <c r="P10">
         <v>1.53</v>
       </c>
+      <c r="Q10">
+        <v>2.56</v>
+      </c>
+      <c r="R10">
+        <v>7.75</v>
+      </c>
+      <c r="S10">
+        <v>10.24</v>
+      </c>
       <c r="V10" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1512,22 +1671,25 @@
       <c r="Z10">
         <v>0.5351264476776123</v>
       </c>
-      <c r="AA10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300189</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>-9.69</v>
@@ -1545,7 +1707,7 @@
         <v>176305.33</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1565,8 +1727,23 @@
       <c r="P11">
         <v>-8.26</v>
       </c>
+      <c r="Q11">
+        <v>-2.02</v>
+      </c>
+      <c r="R11">
+        <v>4.98</v>
+      </c>
+      <c r="S11">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="V11" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1574,22 +1751,25 @@
       <c r="Z11">
         <v>1.444567918777466</v>
       </c>
-      <c r="AA11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300199</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1607,7 +1787,7 @@
         <v>113400.51</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K12">
         <v>18</v>
@@ -1627,8 +1807,23 @@
       <c r="P12">
         <v>-0.6</v>
       </c>
+      <c r="Q12">
+        <v>2.3</v>
+      </c>
+      <c r="R12">
+        <v>19.3</v>
+      </c>
+      <c r="S12">
+        <v>3.26</v>
+      </c>
       <c r="V12" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1636,22 +1831,25 @@
       <c r="Z12">
         <v>4.926612854003906</v>
       </c>
-      <c r="AA12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300224</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>5.89</v>
@@ -1669,7 +1867,7 @@
         <v>191678.13</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1689,8 +1887,23 @@
       <c r="P13">
         <v>-0.76</v>
       </c>
+      <c r="Q13">
+        <v>-0.99</v>
+      </c>
+      <c r="R13">
+        <v>17.2</v>
+      </c>
+      <c r="S13">
+        <v>0.64</v>
+      </c>
       <c r="V13" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1698,22 +1911,25 @@
       <c r="Z13">
         <v>5.084492206573486</v>
       </c>
-      <c r="AA13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300254</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-2.57</v>
@@ -1731,7 +1947,7 @@
         <v>62142.72</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1751,8 +1967,23 @@
       <c r="P14">
         <v>-2.01</v>
       </c>
+      <c r="Q14">
+        <v>4.48</v>
+      </c>
+      <c r="R14">
+        <v>12.3</v>
+      </c>
+      <c r="S14">
+        <v>7.99</v>
+      </c>
       <c r="V14" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1760,22 +1991,25 @@
       <c r="Z14">
         <v>-1.204890727996826</v>
       </c>
-      <c r="AA14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300267</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>5.03</v>
@@ -1793,7 +2027,7 @@
         <v>95267.46000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1813,8 +2047,23 @@
       <c r="P15">
         <v>0.34</v>
       </c>
+      <c r="Q15">
+        <v>15.43</v>
+      </c>
+      <c r="R15">
+        <v>4.51</v>
+      </c>
+      <c r="S15">
+        <v>19.95</v>
+      </c>
       <c r="V15" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1822,22 +2071,25 @@
       <c r="Z15">
         <v>2.56645679473877</v>
       </c>
-      <c r="AA15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300283</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>-7.68</v>
@@ -1855,7 +2107,7 @@
         <v>50127.89</v>
       </c>
       <c r="J16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -1875,8 +2127,23 @@
       <c r="P16">
         <v>-2.11</v>
       </c>
+      <c r="Q16">
+        <v>5.05</v>
+      </c>
+      <c r="R16">
+        <v>7.72</v>
+      </c>
+      <c r="S16">
+        <v>5.32</v>
+      </c>
       <c r="V16" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1884,22 +2151,25 @@
       <c r="Z16">
         <v>3.943117380142212</v>
       </c>
-      <c r="AA16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300329</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>-4.76</v>
@@ -1917,7 +2187,7 @@
         <v>62858.37</v>
       </c>
       <c r="J17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1937,8 +2207,23 @@
       <c r="P17">
         <v>-3.17</v>
       </c>
+      <c r="Q17">
+        <v>-3.67</v>
+      </c>
+      <c r="R17">
+        <v>10.1</v>
+      </c>
+      <c r="S17">
+        <v>3.06</v>
+      </c>
       <c r="V17" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1946,22 +2231,25 @@
       <c r="Z17">
         <v>9.865262985229492</v>
       </c>
-      <c r="AA17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300363</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>7.55</v>
@@ -1979,7 +2267,7 @@
         <v>154797.57</v>
       </c>
       <c r="J18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1999,8 +2287,23 @@
       <c r="P18">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="Q18">
+        <v>4.99</v>
+      </c>
+      <c r="R18">
+        <v>24.98</v>
+      </c>
+      <c r="S18">
+        <v>5.58</v>
+      </c>
       <c r="V18" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2008,22 +2311,25 @@
       <c r="Z18">
         <v>0.2672231495380402</v>
       </c>
-      <c r="AA18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300378</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>6.62</v>
@@ -2041,7 +2347,7 @@
         <v>196122.19</v>
       </c>
       <c r="J19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2061,8 +2367,23 @@
       <c r="P19">
         <v>0.53</v>
       </c>
+      <c r="Q19">
+        <v>-0.65</v>
+      </c>
+      <c r="R19">
+        <v>50.22</v>
+      </c>
+      <c r="S19">
+        <v>-0.42</v>
+      </c>
       <c r="V19" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -2070,22 +2391,25 @@
       <c r="Z19">
         <v>3.049824953079224</v>
       </c>
-      <c r="AA19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300414</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>-7.72</v>
@@ -2103,7 +2427,7 @@
         <v>90680.86</v>
       </c>
       <c r="J20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K20">
         <v>10</v>
@@ -2123,8 +2447,23 @@
       <c r="P20">
         <v>-2.13</v>
       </c>
+      <c r="Q20">
+        <v>2.86</v>
+      </c>
+      <c r="R20">
+        <v>14.5</v>
+      </c>
+      <c r="S20">
+        <v>3.65</v>
+      </c>
       <c r="V20" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2132,22 +2471,25 @@
       <c r="Z20">
         <v>3.083834171295166</v>
       </c>
-      <c r="AA20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300436</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>2.45</v>
@@ -2165,7 +2507,7 @@
         <v>125577.55</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K21">
         <v>17</v>
@@ -2185,8 +2527,23 @@
       <c r="P21">
         <v>0.63</v>
       </c>
+      <c r="Q21">
+        <v>13.68</v>
+      </c>
+      <c r="R21">
+        <v>88.88</v>
+      </c>
+      <c r="S21">
+        <v>18.52</v>
+      </c>
       <c r="V21" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2194,22 +2551,25 @@
       <c r="Z21">
         <v>0.502606213092804</v>
       </c>
-      <c r="AA21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300485</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>-2.82</v>
@@ -2227,7 +2587,7 @@
         <v>47145.36</v>
       </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2247,8 +2607,23 @@
       <c r="P22">
         <v>-1.9</v>
       </c>
+      <c r="Q22">
+        <v>0.34</v>
+      </c>
+      <c r="R22">
+        <v>15.24</v>
+      </c>
+      <c r="S22">
+        <v>2.7</v>
+      </c>
       <c r="V22" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2256,22 +2631,25 @@
       <c r="Z22">
         <v>3.685632467269897</v>
       </c>
-      <c r="AA22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300490</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>-6.34</v>
@@ -2289,7 +2667,7 @@
         <v>65214.61</v>
       </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2309,8 +2687,23 @@
       <c r="P23">
         <v>-2.23</v>
       </c>
+      <c r="Q23">
+        <v>-1.69</v>
+      </c>
+      <c r="R23">
+        <v>10.04</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
       <c r="V23" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2318,22 +2711,25 @@
       <c r="Z23">
         <v>5.200325012207031</v>
       </c>
-      <c r="AA23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300500</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>-6.81</v>
@@ -2351,7 +2747,7 @@
         <v>35714.34</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -2371,8 +2767,23 @@
       <c r="P24">
         <v>-0.85</v>
       </c>
+      <c r="Q24">
+        <v>-1.03</v>
+      </c>
+      <c r="R24">
+        <v>13.52</v>
+      </c>
+      <c r="S24">
+        <v>-0.15</v>
+      </c>
       <c r="V24" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2380,22 +2791,25 @@
       <c r="Z24">
         <v>5.597587585449219</v>
       </c>
-      <c r="AA24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300527</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>-1.65</v>
@@ -2413,7 +2827,7 @@
         <v>56075.08</v>
       </c>
       <c r="J25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K25">
         <v>19</v>
@@ -2433,8 +2847,23 @@
       <c r="P25">
         <v>-0.43</v>
       </c>
+      <c r="Q25">
+        <v>1.24</v>
+      </c>
+      <c r="R25">
+        <v>11.61</v>
+      </c>
+      <c r="S25">
+        <v>2.65</v>
+      </c>
       <c r="V25" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2442,22 +2871,25 @@
       <c r="Z25">
         <v>2.749902009963989</v>
       </c>
-      <c r="AA25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300528</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>2.66</v>
@@ -2475,7 +2907,7 @@
         <v>105481.09</v>
       </c>
       <c r="J26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2495,8 +2927,23 @@
       <c r="P26">
         <v>-0.13</v>
       </c>
+      <c r="Q26">
+        <v>20</v>
+      </c>
+      <c r="R26">
+        <v>17.58</v>
+      </c>
+      <c r="S26">
+        <v>20</v>
+      </c>
       <c r="V26" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -2504,22 +2951,25 @@
       <c r="Z26">
         <v>6.002009391784668</v>
       </c>
-      <c r="AA26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300533</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>-0.65</v>
@@ -2537,7 +2987,7 @@
         <v>44803.19</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K27">
         <v>23</v>
@@ -2557,8 +3007,23 @@
       <c r="P27">
         <v>-0.93</v>
       </c>
+      <c r="Q27">
+        <v>1.13</v>
+      </c>
+      <c r="R27">
+        <v>36.24</v>
+      </c>
+      <c r="S27">
+        <v>2.4</v>
+      </c>
       <c r="V27" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2566,22 +3031,25 @@
       <c r="Z27">
         <v>3.741405010223389</v>
       </c>
-      <c r="AA27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300537</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>0.96</v>
@@ -2599,7 +3067,7 @@
         <v>31910.56</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K28">
         <v>20</v>
@@ -2619,8 +3087,23 @@
       <c r="P28">
         <v>-0.22</v>
       </c>
+      <c r="Q28">
+        <v>4.93</v>
+      </c>
+      <c r="R28">
+        <v>27</v>
+      </c>
+      <c r="S28">
+        <v>7.4</v>
+      </c>
       <c r="V28" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2628,22 +3111,25 @@
       <c r="Z28">
         <v>0.6021520495414734</v>
       </c>
-      <c r="AA28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300539</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>19.99</v>
@@ -2661,7 +3147,7 @@
         <v>108985.64</v>
       </c>
       <c r="J29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2681,8 +3167,23 @@
       <c r="P29">
         <v>1.15</v>
       </c>
+      <c r="Q29">
+        <v>4.47</v>
+      </c>
+      <c r="R29">
+        <v>28</v>
+      </c>
+      <c r="S29">
+        <v>18.09</v>
+      </c>
       <c r="V29" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -2690,22 +3191,25 @@
       <c r="Z29">
         <v>5.934105396270752</v>
       </c>
-      <c r="AA29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300548</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>-1.1</v>
@@ -2723,7 +3227,7 @@
         <v>153030.34</v>
       </c>
       <c r="J30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K30">
         <v>9</v>
@@ -2743,8 +3247,23 @@
       <c r="P30">
         <v>-0.89</v>
       </c>
+      <c r="Q30">
+        <v>1.74</v>
+      </c>
+      <c r="R30">
+        <v>85.36</v>
+      </c>
+      <c r="S30">
+        <v>3.27</v>
+      </c>
       <c r="V30" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2752,22 +3271,25 @@
       <c r="Z30">
         <v>2.309713840484619</v>
       </c>
-      <c r="AA30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300581</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>-2.31</v>
@@ -2785,7 +3307,7 @@
         <v>83960.72</v>
       </c>
       <c r="J31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -2805,8 +3327,23 @@
       <c r="P31">
         <v>-0.7</v>
       </c>
+      <c r="Q31">
+        <v>4.06</v>
+      </c>
+      <c r="R31">
+        <v>21.7</v>
+      </c>
+      <c r="S31">
+        <v>4.78</v>
+      </c>
       <c r="V31" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2814,22 +3351,25 @@
       <c r="Z31">
         <v>2.604730367660522</v>
       </c>
-      <c r="AA31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300631</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>-6.14</v>
@@ -2847,7 +3387,7 @@
         <v>75964.78999999999</v>
       </c>
       <c r="J32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K32">
         <v>10</v>
@@ -2867,8 +3407,23 @@
       <c r="P32">
         <v>-0.88</v>
       </c>
+      <c r="Q32">
+        <v>0.48</v>
+      </c>
+      <c r="R32">
+        <v>33.4</v>
+      </c>
+      <c r="S32">
+        <v>1.12</v>
+      </c>
       <c r="V32" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -2876,22 +3431,25 @@
       <c r="Z32">
         <v>1.488695859909058</v>
       </c>
-      <c r="AA32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300644</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>-0.4</v>
@@ -2909,7 +3467,7 @@
         <v>32944.09</v>
       </c>
       <c r="J33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -2929,8 +3487,23 @@
       <c r="P33">
         <v>-0.36</v>
       </c>
+      <c r="Q33">
+        <v>5.57</v>
+      </c>
+      <c r="R33">
+        <v>34.27</v>
+      </c>
+      <c r="S33">
+        <v>6.59</v>
+      </c>
       <c r="V33" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2938,22 +3511,25 @@
       <c r="Z33">
         <v>3.240737199783325</v>
       </c>
-      <c r="AA33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300665</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-4.79</v>
@@ -2971,7 +3547,7 @@
         <v>28375.12</v>
       </c>
       <c r="J34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -2991,8 +3567,23 @@
       <c r="P34">
         <v>-2.94</v>
       </c>
+      <c r="Q34">
+        <v>2.31</v>
+      </c>
+      <c r="R34">
+        <v>9.82</v>
+      </c>
+      <c r="S34">
+        <v>2.94</v>
+      </c>
       <c r="V34" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3000,22 +3591,25 @@
       <c r="Z34">
         <v>1.452376842498779</v>
       </c>
-      <c r="AA34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300683</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>8.99</v>
@@ -3033,7 +3627,7 @@
         <v>89393.13</v>
       </c>
       <c r="J35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3053,8 +3647,23 @@
       <c r="P35">
         <v>1.01</v>
       </c>
+      <c r="Q35">
+        <v>-5.45</v>
+      </c>
+      <c r="R35">
+        <v>45.5</v>
+      </c>
+      <c r="S35">
+        <v>-2</v>
+      </c>
       <c r="V35" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>1</v>
@@ -3062,22 +3671,25 @@
       <c r="Z35">
         <v>3.593259811401367</v>
       </c>
-      <c r="AA35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300706</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>19.99</v>
@@ -3095,7 +3707,7 @@
         <v>113903.86</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3115,8 +3727,23 @@
       <c r="P36">
         <v>7.21</v>
       </c>
+      <c r="Q36">
+        <v>9.18</v>
+      </c>
+      <c r="R36">
+        <v>37.68</v>
+      </c>
+      <c r="S36">
+        <v>12.71</v>
+      </c>
       <c r="V36" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3124,22 +3751,25 @@
       <c r="Z36">
         <v>6.888310432434082</v>
       </c>
-      <c r="AA36" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300722</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>-2.38</v>
@@ -3157,7 +3787,7 @@
         <v>55998.59</v>
       </c>
       <c r="J37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K37">
         <v>5</v>
@@ -3177,8 +3807,23 @@
       <c r="P37">
         <v>-0.72</v>
       </c>
+      <c r="Q37">
+        <v>1.22</v>
+      </c>
+      <c r="R37">
+        <v>38.67</v>
+      </c>
+      <c r="S37">
+        <v>2.63</v>
+      </c>
       <c r="V37" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3186,22 +3831,25 @@
       <c r="Z37">
         <v>3.443751096725464</v>
       </c>
-      <c r="AA37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300748</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-1.37</v>
@@ -3219,7 +3867,7 @@
         <v>267588.15</v>
       </c>
       <c r="J38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K38">
         <v>11</v>
@@ -3239,8 +3887,23 @@
       <c r="P38">
         <v>-0.64</v>
       </c>
+      <c r="Q38">
+        <v>-0.52</v>
+      </c>
+      <c r="R38">
+        <v>28.93</v>
+      </c>
+      <c r="S38">
+        <v>0.8</v>
+      </c>
       <c r="V38" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3248,22 +3911,25 @@
       <c r="Z38">
         <v>-0.3267269432544708</v>
       </c>
-      <c r="AA38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>300803</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>-2.72</v>
@@ -3281,7 +3947,7 @@
         <v>479259.24</v>
       </c>
       <c r="J39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K39">
         <v>21</v>
@@ -3301,8 +3967,23 @@
       <c r="P39">
         <v>-0.39</v>
       </c>
+      <c r="Q39">
+        <v>1.54</v>
+      </c>
+      <c r="R39">
+        <v>95.84</v>
+      </c>
+      <c r="S39">
+        <v>3.81</v>
+      </c>
       <c r="V39" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3310,22 +3991,25 @@
       <c r="Z39">
         <v>4.684675216674805</v>
       </c>
-      <c r="AA39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>300830</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>5.08</v>
@@ -3343,7 +4027,7 @@
         <v>61328.8</v>
       </c>
       <c r="J40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3363,8 +4047,23 @@
       <c r="P40">
         <v>0.98</v>
       </c>
+      <c r="Q40">
+        <v>-2.28</v>
+      </c>
+      <c r="R40">
+        <v>10.89</v>
+      </c>
+      <c r="S40">
+        <v>-0.64</v>
+      </c>
       <c r="V40" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3372,22 +4071,25 @@
       <c r="Z40">
         <v>3.42359447479248</v>
       </c>
-      <c r="AA40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>300835</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>-6.62</v>
@@ -3405,7 +4107,7 @@
         <v>101409.21</v>
       </c>
       <c r="J41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -3425,8 +4127,23 @@
       <c r="P41">
         <v>-0.38</v>
       </c>
+      <c r="Q41">
+        <v>4.97</v>
+      </c>
+      <c r="R41">
+        <v>61.16</v>
+      </c>
+      <c r="S41">
+        <v>7.37</v>
+      </c>
       <c r="V41" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3434,22 +4151,25 @@
       <c r="Z41">
         <v>2.619322061538696</v>
       </c>
-      <c r="AA41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>300865</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>-8.720000000000001</v>
@@ -3467,7 +4187,7 @@
         <v>47148.98</v>
       </c>
       <c r="J42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -3487,8 +4207,23 @@
       <c r="P42">
         <v>-1.37</v>
       </c>
+      <c r="Q42">
+        <v>-1.14</v>
+      </c>
+      <c r="R42">
+        <v>37.2</v>
+      </c>
+      <c r="S42">
+        <v>0.68</v>
+      </c>
       <c r="V42" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3496,22 +4231,25 @@
       <c r="Z42">
         <v>1.965287804603577</v>
       </c>
-      <c r="AA42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>300872</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>0.98</v>
@@ -3529,7 +4267,7 @@
         <v>163943.03</v>
       </c>
       <c r="J43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -3549,8 +4287,23 @@
       <c r="P43">
         <v>-0.04</v>
       </c>
+      <c r="Q43">
+        <v>6.03</v>
+      </c>
+      <c r="R43">
+        <v>27.48</v>
+      </c>
+      <c r="S43">
+        <v>6.88</v>
+      </c>
       <c r="V43" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3558,22 +4311,25 @@
       <c r="Z43">
         <v>1.717005729675293</v>
       </c>
-      <c r="AA43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>300877</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>2.55</v>
@@ -3591,7 +4347,7 @@
         <v>76811.78</v>
       </c>
       <c r="J44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -3611,8 +4367,23 @@
       <c r="P44">
         <v>-0.44</v>
       </c>
+      <c r="Q44">
+        <v>-1.32</v>
+      </c>
+      <c r="R44">
+        <v>26.7</v>
+      </c>
+      <c r="S44">
+        <v>3.65</v>
+      </c>
       <c r="V44" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>1</v>
@@ -3620,22 +4391,25 @@
       <c r="Z44">
         <v>8.009117126464844</v>
       </c>
-      <c r="AA44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>300881</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-4.02</v>
@@ -3653,7 +4427,7 @@
         <v>27499.8</v>
       </c>
       <c r="J45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -3673,8 +4447,23 @@
       <c r="P45">
         <v>-0.79</v>
       </c>
+      <c r="Q45">
+        <v>-0.62</v>
+      </c>
+      <c r="R45">
+        <v>39.06</v>
+      </c>
+      <c r="S45">
+        <v>0.41</v>
+      </c>
       <c r="V45" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3682,22 +4471,25 @@
       <c r="Z45">
         <v>1.574854850769043</v>
       </c>
-      <c r="AA45" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>300885</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>-5.75</v>
@@ -3715,7 +4507,7 @@
         <v>54885.51</v>
       </c>
       <c r="J46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -3735,8 +4527,23 @@
       <c r="P46">
         <v>-0.37</v>
       </c>
+      <c r="Q46">
+        <v>-2.51</v>
+      </c>
+      <c r="R46">
+        <v>19</v>
+      </c>
+      <c r="S46">
+        <v>8.390000000000001</v>
+      </c>
       <c r="V46" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3744,22 +4551,25 @@
       <c r="Z46">
         <v>3.433809995651245</v>
       </c>
-      <c r="AA46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>300922</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>1.55</v>
@@ -3777,7 +4587,7 @@
         <v>29779.07</v>
       </c>
       <c r="J47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -3797,8 +4607,23 @@
       <c r="P47">
         <v>0.19</v>
       </c>
+      <c r="Q47">
+        <v>0.78</v>
+      </c>
+      <c r="R47">
+        <v>30.84</v>
+      </c>
+      <c r="S47">
+        <v>4.51</v>
+      </c>
       <c r="V47" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3806,22 +4631,25 @@
       <c r="Z47">
         <v>1.460810661315918</v>
       </c>
-      <c r="AA47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>300930</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>-8.58</v>
@@ -3839,7 +4667,7 @@
         <v>32016.46</v>
       </c>
       <c r="J48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3859,8 +4687,23 @@
       <c r="P48">
         <v>-1.75</v>
       </c>
+      <c r="Q48">
+        <v>2.84</v>
+      </c>
+      <c r="R48">
+        <v>33.48</v>
+      </c>
+      <c r="S48">
+        <v>3.33</v>
+      </c>
       <c r="V48" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3868,22 +4711,25 @@
       <c r="Z48">
         <v>2.426820278167725</v>
       </c>
-      <c r="AA48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>300950</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>2.65</v>
@@ -3901,7 +4747,7 @@
         <v>35785.22</v>
       </c>
       <c r="J49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -3921,8 +4767,23 @@
       <c r="P49">
         <v>-0.05</v>
       </c>
+      <c r="Q49">
+        <v>6.61</v>
+      </c>
+      <c r="R49">
+        <v>33.35</v>
+      </c>
+      <c r="S49">
+        <v>10.25</v>
+      </c>
       <c r="V49" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3930,22 +4791,25 @@
       <c r="Z49">
         <v>3.16802453994751</v>
       </c>
-      <c r="AA49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>300955</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>-4.66</v>
@@ -3963,7 +4827,7 @@
         <v>32084.24</v>
       </c>
       <c r="J50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3983,8 +4847,23 @@
       <c r="P50">
         <v>1.53</v>
       </c>
+      <c r="Q50">
+        <v>1.94</v>
+      </c>
+      <c r="R50">
+        <v>23.49</v>
+      </c>
+      <c r="S50">
+        <v>6.19</v>
+      </c>
       <c r="V50" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3992,22 +4871,25 @@
       <c r="Z50">
         <v>2.230734825134277</v>
       </c>
-      <c r="AA50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301007</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>6.22</v>
@@ -4025,7 +4907,7 @@
         <v>52482.12</v>
       </c>
       <c r="J51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -4045,8 +4927,23 @@
       <c r="P51">
         <v>0.54</v>
       </c>
+      <c r="Q51">
+        <v>-0.63</v>
+      </c>
+      <c r="R51">
+        <v>39.38</v>
+      </c>
+      <c r="S51">
+        <v>13.1</v>
+      </c>
       <c r="V51" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -4054,22 +4951,25 @@
       <c r="Z51">
         <v>3.829097986221313</v>
       </c>
-      <c r="AA51" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301141</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>-3.66</v>
@@ -4087,7 +4987,7 @@
         <v>74410.45</v>
       </c>
       <c r="J52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K52">
         <v>21</v>
@@ -4107,8 +5007,23 @@
       <c r="P52">
         <v>-2.95</v>
       </c>
+      <c r="Q52">
+        <v>-0.12</v>
+      </c>
+      <c r="R52">
+        <v>68.95</v>
+      </c>
+      <c r="S52">
+        <v>1.44</v>
+      </c>
       <c r="V52" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4116,22 +5031,25 @@
       <c r="Z52">
         <v>3.90937876701355</v>
       </c>
-      <c r="AA52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301150</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>3.65</v>
@@ -4149,7 +5067,7 @@
         <v>44609.31</v>
       </c>
       <c r="J53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -4169,8 +5087,23 @@
       <c r="P53">
         <v>-0.45</v>
       </c>
+      <c r="Q53">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="R53">
+        <v>26.88</v>
+      </c>
+      <c r="S53">
+        <v>12.61</v>
+      </c>
       <c r="V53" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4178,22 +5111,25 @@
       <c r="Z53">
         <v>8.455303192138672</v>
       </c>
-      <c r="AA53" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>301151</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>-9.77</v>
@@ -4211,7 +5147,7 @@
         <v>46758.74</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -4231,8 +5167,23 @@
       <c r="P54">
         <v>-1.27</v>
       </c>
+      <c r="Q54">
+        <v>3.26</v>
+      </c>
+      <c r="R54">
+        <v>22.98</v>
+      </c>
+      <c r="S54">
+        <v>4.08</v>
+      </c>
       <c r="V54" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4240,22 +5191,25 @@
       <c r="Z54">
         <v>3.271483659744263</v>
       </c>
-      <c r="AA54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>301165</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>0.48</v>
@@ -4273,7 +5227,7 @@
         <v>41872.1</v>
       </c>
       <c r="J55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K55">
         <v>8</v>
@@ -4293,8 +5247,23 @@
       <c r="P55">
         <v>-0.55</v>
       </c>
+      <c r="Q55">
+        <v>1.22</v>
+      </c>
+      <c r="R55">
+        <v>61.96</v>
+      </c>
+      <c r="S55">
+        <v>1.89</v>
+      </c>
       <c r="V55" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4302,22 +5271,25 @@
       <c r="Z55">
         <v>2.264723777770996</v>
       </c>
-      <c r="AA55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>301183</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>-1.06</v>
@@ -4335,7 +5307,7 @@
         <v>34163.64</v>
       </c>
       <c r="J56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K56">
         <v>8</v>
@@ -4355,8 +5327,23 @@
       <c r="P56">
         <v>-0.24</v>
       </c>
+      <c r="Q56">
+        <v>0.47</v>
+      </c>
+      <c r="R56">
+        <v>66.92</v>
+      </c>
+      <c r="S56">
+        <v>1.93</v>
+      </c>
       <c r="V56" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4364,22 +5351,25 @@
       <c r="Z56">
         <v>2.374821901321411</v>
       </c>
-      <c r="AA56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>301200</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>-3.4</v>
@@ -4397,7 +5387,7 @@
         <v>58991.05</v>
       </c>
       <c r="J57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -4417,8 +5407,23 @@
       <c r="P57">
         <v>0.59</v>
       </c>
+      <c r="Q57">
+        <v>19.99</v>
+      </c>
+      <c r="R57">
+        <v>69.14</v>
+      </c>
+      <c r="S57">
+        <v>19.99</v>
+      </c>
       <c r="V57" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4426,22 +5431,25 @@
       <c r="Z57">
         <v>2.713465690612793</v>
       </c>
-      <c r="AA57" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>301201</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>-0.8100000000000001</v>
@@ -4459,7 +5467,7 @@
         <v>29464.59</v>
       </c>
       <c r="J58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K58">
         <v>4</v>
@@ -4479,8 +5487,23 @@
       <c r="P58">
         <v>0.21</v>
       </c>
+      <c r="Q58">
+        <v>-0.3</v>
+      </c>
+      <c r="R58">
+        <v>27.49</v>
+      </c>
+      <c r="S58">
+        <v>1.63</v>
+      </c>
       <c r="V58" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4488,22 +5511,25 @@
       <c r="Z58">
         <v>6.287719249725342</v>
       </c>
-      <c r="AA58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>301217</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>-10.84</v>
@@ -4521,7 +5547,7 @@
         <v>175334.92</v>
       </c>
       <c r="J59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K59">
         <v>15</v>
@@ -4541,8 +5567,23 @@
       <c r="P59">
         <v>1.1</v>
       </c>
+      <c r="Q59">
+        <v>20</v>
+      </c>
+      <c r="R59">
+        <v>25.08</v>
+      </c>
+      <c r="S59">
+        <v>20</v>
+      </c>
       <c r="V59" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4550,22 +5591,25 @@
       <c r="Z59">
         <v>4.336339950561523</v>
       </c>
-      <c r="AA59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>301306</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>2.75</v>
@@ -4583,7 +5627,7 @@
         <v>40859.03</v>
       </c>
       <c r="J60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K60">
         <v>3</v>
@@ -4603,8 +5647,23 @@
       <c r="P60">
         <v>-1.71</v>
       </c>
+      <c r="Q60">
+        <v>13.82</v>
+      </c>
+      <c r="R60">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="S60">
+        <v>15.31</v>
+      </c>
       <c r="V60" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -4612,22 +5671,25 @@
       <c r="Z60">
         <v>4.885436534881592</v>
       </c>
-      <c r="AA60" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>301345</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>12.69</v>
@@ -4645,7 +5707,7 @@
         <v>81962.02</v>
       </c>
       <c r="J61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -4665,8 +5727,23 @@
       <c r="P61">
         <v>-0.25</v>
       </c>
+      <c r="Q61">
+        <v>-1.48</v>
+      </c>
+      <c r="R61">
+        <v>161.39</v>
+      </c>
+      <c r="S61">
+        <v>0.15</v>
+      </c>
       <c r="V61" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
       </c>
       <c r="Y61">
         <v>1</v>
@@ -4674,22 +5751,25 @@
       <c r="Z61">
         <v>2.741477727890015</v>
       </c>
-      <c r="AA61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>301377</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>4.58</v>
@@ -4707,7 +5787,7 @@
         <v>40918.63</v>
       </c>
       <c r="J62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K62">
         <v>9</v>
@@ -4727,8 +5807,23 @@
       <c r="P62">
         <v>-0.67</v>
       </c>
+      <c r="Q62">
+        <v>12.61</v>
+      </c>
+      <c r="R62">
+        <v>57.74</v>
+      </c>
+      <c r="S62">
+        <v>18.22</v>
+      </c>
       <c r="V62" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -4736,22 +5831,25 @@
       <c r="Z62">
         <v>2.268108367919922</v>
       </c>
-      <c r="AA62" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>301389</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>-1.83</v>
@@ -4769,7 +5867,7 @@
         <v>38415.44</v>
       </c>
       <c r="J63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K63">
         <v>14</v>
@@ -4789,8 +5887,23 @@
       <c r="P63">
         <v>-1.29</v>
       </c>
+      <c r="Q63">
+        <v>6.71</v>
+      </c>
+      <c r="R63">
+        <v>36.44</v>
+      </c>
+      <c r="S63">
+        <v>11.13</v>
+      </c>
       <c r="V63" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -4798,22 +5911,25 @@
       <c r="Z63">
         <v>1.745242118835449</v>
       </c>
-      <c r="AA63" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>301392</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>11.09</v>
@@ -4831,7 +5947,7 @@
         <v>66663.95</v>
       </c>
       <c r="J64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -4851,8 +5967,23 @@
       <c r="P64">
         <v>0.55</v>
       </c>
+      <c r="Q64">
+        <v>0.11</v>
+      </c>
+      <c r="R64">
+        <v>165.68</v>
+      </c>
+      <c r="S64">
+        <v>1.14</v>
+      </c>
       <c r="V64" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>1</v>
@@ -4860,22 +5991,25 @@
       <c r="Z64">
         <v>2.713518619537354</v>
       </c>
-      <c r="AA64" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>301408</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>0.89</v>
@@ -4893,7 +6027,7 @@
         <v>34052.22</v>
       </c>
       <c r="J65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -4913,8 +6047,23 @@
       <c r="P65">
         <v>0.58</v>
       </c>
+      <c r="Q65">
+        <v>-1.63</v>
+      </c>
+      <c r="R65">
+        <v>14.93</v>
+      </c>
+      <c r="S65">
+        <v>1.63</v>
+      </c>
       <c r="V65" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -4922,22 +6071,25 @@
       <c r="Z65">
         <v>4.571369171142578</v>
       </c>
-      <c r="AA65" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>301421</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>3.74</v>
@@ -4955,7 +6107,7 @@
         <v>84911.55</v>
       </c>
       <c r="J66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K66">
         <v>25</v>
@@ -4975,8 +6127,23 @@
       <c r="P66">
         <v>-0.97</v>
       </c>
+      <c r="Q66">
+        <v>-2.71</v>
+      </c>
+      <c r="R66">
+        <v>86</v>
+      </c>
+      <c r="S66">
+        <v>4.46</v>
+      </c>
       <c r="V66" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -4984,22 +6151,25 @@
       <c r="Z66">
         <v>4.664107322692871</v>
       </c>
-      <c r="AA66" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>301511</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67">
         <v>-3.52</v>
@@ -5017,7 +6187,7 @@
         <v>74603.17999999999</v>
       </c>
       <c r="J67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K67">
         <v>24</v>
@@ -5037,8 +6207,23 @@
       <c r="P67">
         <v>-0.01</v>
       </c>
+      <c r="Q67">
+        <v>12.14</v>
+      </c>
+      <c r="R67">
+        <v>31.4</v>
+      </c>
+      <c r="S67">
+        <v>13.44</v>
+      </c>
       <c r="V67" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -5046,22 +6231,25 @@
       <c r="Z67">
         <v>4.369850158691406</v>
       </c>
-      <c r="AA67" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>301526</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68">
         <v>-1.84</v>
@@ -5079,7 +6267,7 @@
         <v>35343.2</v>
       </c>
       <c r="J68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K68">
         <v>14</v>
@@ -5099,8 +6287,23 @@
       <c r="P68">
         <v>-1.06</v>
       </c>
+      <c r="Q68">
+        <v>2.7</v>
+      </c>
+      <c r="R68">
+        <v>5</v>
+      </c>
+      <c r="S68">
+        <v>3.95</v>
+      </c>
       <c r="V68" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -5108,22 +6311,25 @@
       <c r="Z68">
         <v>2.106010913848877</v>
       </c>
-      <c r="AA68" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>301529</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69">
         <v>9.220000000000001</v>
@@ -5141,7 +6347,7 @@
         <v>38526.81</v>
       </c>
       <c r="J69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K69">
         <v>5</v>
@@ -5161,8 +6367,23 @@
       <c r="P69">
         <v>0.8100000000000001</v>
       </c>
+      <c r="Q69">
+        <v>3.27</v>
+      </c>
+      <c r="R69">
+        <v>62.97</v>
+      </c>
+      <c r="S69">
+        <v>4.05</v>
+      </c>
       <c r="V69" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -5170,22 +6391,25 @@
       <c r="Z69">
         <v>6.016471862792969</v>
       </c>
-      <c r="AA69" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>301556</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70">
         <v>5.99</v>
@@ -5203,7 +6427,7 @@
         <v>39535.73</v>
       </c>
       <c r="J70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -5223,8 +6447,23 @@
       <c r="P70">
         <v>0.24</v>
       </c>
+      <c r="Q70">
+        <v>-1.76</v>
+      </c>
+      <c r="R70">
+        <v>123.85</v>
+      </c>
+      <c r="S70">
+        <v>1.61</v>
+      </c>
       <c r="V70" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -5232,22 +6471,25 @@
       <c r="Z70">
         <v>2.077761888504028</v>
       </c>
-      <c r="AA70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>301626</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71">
         <v>2.95</v>
@@ -5265,7 +6507,7 @@
         <v>37704.96</v>
       </c>
       <c r="J71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K71">
         <v>4</v>
@@ -5285,8 +6527,23 @@
       <c r="P71">
         <v>0.62</v>
       </c>
+      <c r="Q71">
+        <v>-1.14</v>
+      </c>
+      <c r="R71">
+        <v>145.88</v>
+      </c>
+      <c r="S71">
+        <v>0.64</v>
+      </c>
       <c r="V71" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -5294,22 +6551,25 @@
       <c r="Z71">
         <v>4.740624904632568</v>
       </c>
-      <c r="AA71" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>688062</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72">
         <v>-1.59</v>
@@ -5327,7 +6587,7 @@
         <v>44668.24</v>
       </c>
       <c r="J72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K72">
         <v>17</v>
@@ -5347,8 +6607,23 @@
       <c r="P72">
         <v>-0.64</v>
       </c>
+      <c r="Q72">
+        <v>3.36</v>
+      </c>
+      <c r="R72">
+        <v>33.97</v>
+      </c>
+      <c r="S72">
+        <v>3.85</v>
+      </c>
       <c r="V72" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -5356,22 +6631,25 @@
       <c r="Z72">
         <v>2.920773983001709</v>
       </c>
-      <c r="AA72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73">
         <v>688117</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73">
         <v>2.15</v>
@@ -5389,7 +6667,7 @@
         <v>40194.56</v>
       </c>
       <c r="J73" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K73">
         <v>9</v>
@@ -5409,8 +6687,23 @@
       <c r="P73">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q73">
+        <v>2.47</v>
+      </c>
+      <c r="R73">
+        <v>42.33</v>
+      </c>
+      <c r="S73">
+        <v>3.42</v>
+      </c>
       <c r="V73" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
       </c>
       <c r="Y73">
         <v>0</v>
@@ -5418,22 +6711,25 @@
       <c r="Z73">
         <v>2.753909349441528</v>
       </c>
-      <c r="AA73" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C74">
         <v>688155</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74">
         <v>-1.49</v>
@@ -5451,7 +6747,7 @@
         <v>28622.79</v>
       </c>
       <c r="J74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K74">
         <v>3</v>
@@ -5471,8 +6767,23 @@
       <c r="P74">
         <v>0.16</v>
       </c>
+      <c r="Q74">
+        <v>-0.04</v>
+      </c>
+      <c r="R74">
+        <v>58.5</v>
+      </c>
+      <c r="S74">
+        <v>5.29</v>
+      </c>
       <c r="V74" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
       </c>
       <c r="Y74">
         <v>0</v>
@@ -5480,22 +6791,25 @@
       <c r="Z74">
         <v>4.782069683074951</v>
       </c>
-      <c r="AA74" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75">
         <v>688202</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75">
         <v>-2.72</v>
@@ -5513,7 +6827,7 @@
         <v>77818.52</v>
       </c>
       <c r="J75" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K75">
         <v>14</v>
@@ -5533,8 +6847,23 @@
       <c r="P75">
         <v>0.01</v>
       </c>
+      <c r="Q75">
+        <v>3.19</v>
+      </c>
+      <c r="R75">
+        <v>67.98</v>
+      </c>
+      <c r="S75">
+        <v>4.91</v>
+      </c>
       <c r="V75" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -5542,22 +6871,25 @@
       <c r="Z75">
         <v>3.079066753387451</v>
       </c>
-      <c r="AA75" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76">
         <v>688210</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76">
         <v>4.15</v>
@@ -5575,7 +6907,7 @@
         <v>63214.91</v>
       </c>
       <c r="J76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -5595,8 +6927,23 @@
       <c r="P76">
         <v>0.15</v>
       </c>
+      <c r="Q76">
+        <v>-3.84</v>
+      </c>
+      <c r="R76">
+        <v>35.25</v>
+      </c>
+      <c r="S76">
+        <v>1.06</v>
+      </c>
       <c r="V76" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -5604,22 +6951,25 @@
       <c r="Z76">
         <v>1.950319409370422</v>
       </c>
-      <c r="AA76" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C77">
         <v>688222</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E77">
         <v>-5.34</v>
@@ -5637,7 +6987,7 @@
         <v>79664.46000000001</v>
       </c>
       <c r="J77" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K77">
         <v>6</v>
@@ -5657,8 +7007,23 @@
       <c r="P77">
         <v>-1.4</v>
       </c>
+      <c r="Q77">
+        <v>-0.31</v>
+      </c>
+      <c r="R77">
+        <v>23.25</v>
+      </c>
+      <c r="S77">
+        <v>1.75</v>
+      </c>
       <c r="V77" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -5666,22 +7031,25 @@
       <c r="Z77">
         <v>-0.6160132884979248</v>
       </c>
-      <c r="AA77" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27">
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C78">
         <v>688257</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78">
         <v>-5.1</v>
@@ -5699,7 +7067,7 @@
         <v>26121.78</v>
       </c>
       <c r="J78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K78">
         <v>3</v>
@@ -5719,8 +7087,23 @@
       <c r="P78">
         <v>-1.19</v>
       </c>
+      <c r="Q78">
+        <v>0.66</v>
+      </c>
+      <c r="R78">
+        <v>17.05</v>
+      </c>
+      <c r="S78">
+        <v>1.79</v>
+      </c>
       <c r="V78" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -5728,22 +7111,25 @@
       <c r="Z78">
         <v>2.610130786895752</v>
       </c>
-      <c r="AA78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C79">
         <v>688313</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79">
         <v>3.65</v>
@@ -5761,7 +7147,7 @@
         <v>150392.52</v>
       </c>
       <c r="J79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K79">
         <v>28</v>
@@ -5781,8 +7167,23 @@
       <c r="P79">
         <v>-0.2</v>
       </c>
+      <c r="Q79">
+        <v>9.27</v>
+      </c>
+      <c r="R79">
+        <v>61.2</v>
+      </c>
+      <c r="S79">
+        <v>9.99</v>
+      </c>
       <c r="V79" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
       </c>
       <c r="Y79">
         <v>0</v>
@@ -5790,22 +7191,25 @@
       <c r="Z79">
         <v>6.068285942077637</v>
       </c>
-      <c r="AA79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27">
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C80">
         <v>688321</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80">
         <v>-3.19</v>
@@ -5823,7 +7227,7 @@
         <v>84146.05</v>
       </c>
       <c r="J80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K80">
         <v>19</v>
@@ -5843,8 +7247,23 @@
       <c r="P80">
         <v>-0.66</v>
       </c>
+      <c r="Q80">
+        <v>0.92</v>
+      </c>
+      <c r="R80">
+        <v>34.66</v>
+      </c>
+      <c r="S80">
+        <v>2.88</v>
+      </c>
       <c r="V80" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
       </c>
       <c r="Y80">
         <v>0</v>
@@ -5852,22 +7271,25 @@
       <c r="Z80">
         <v>6.076233386993408</v>
       </c>
-      <c r="AA80" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27">
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81">
         <v>688356</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E81">
         <v>-3.78</v>
@@ -5885,7 +7307,7 @@
         <v>32575.78</v>
       </c>
       <c r="J81" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K81">
         <v>4</v>
@@ -5905,8 +7327,23 @@
       <c r="P81">
         <v>-0.59</v>
       </c>
+      <c r="Q81">
+        <v>1.17</v>
+      </c>
+      <c r="R81">
+        <v>101.89</v>
+      </c>
+      <c r="S81">
+        <v>3.26</v>
+      </c>
       <c r="V81" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
       </c>
       <c r="Y81">
         <v>0</v>
@@ -5914,22 +7351,25 @@
       <c r="Z81">
         <v>3.553138494491577</v>
       </c>
-      <c r="AA81" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27">
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C82">
         <v>688499</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82">
         <v>0.19</v>
@@ -5947,7 +7387,7 @@
         <v>56171.7</v>
       </c>
       <c r="J82" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K82">
         <v>29</v>
@@ -5967,8 +7407,23 @@
       <c r="P82">
         <v>-0.66</v>
       </c>
+      <c r="Q82">
+        <v>4.02</v>
+      </c>
+      <c r="R82">
+        <v>55.99</v>
+      </c>
+      <c r="S82">
+        <v>6.55</v>
+      </c>
       <c r="V82" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
       </c>
       <c r="Y82">
         <v>0</v>
@@ -5976,22 +7431,25 @@
       <c r="Z82">
         <v>2.431240081787109</v>
       </c>
-      <c r="AA82" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27">
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C83">
         <v>688585</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83">
         <v>17.13</v>
@@ -6009,7 +7467,7 @@
         <v>135716.56</v>
       </c>
       <c r="J83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -6029,8 +7487,23 @@
       <c r="P83">
         <v>0.13</v>
       </c>
+      <c r="Q83">
+        <v>20</v>
+      </c>
+      <c r="R83">
+        <v>79.27</v>
+      </c>
+      <c r="S83">
+        <v>20</v>
+      </c>
       <c r="V83" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
       </c>
       <c r="Y83">
         <v>0</v>
@@ -6038,22 +7511,25 @@
       <c r="Z83">
         <v>1.279559731483459</v>
       </c>
-      <c r="AA83" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27">
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C84">
         <v>688660</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E84">
         <v>-3.38</v>
@@ -6071,7 +7547,7 @@
         <v>142369.97</v>
       </c>
       <c r="J84" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K84">
         <v>3</v>
@@ -6091,8 +7567,23 @@
       <c r="P84">
         <v>-0.67</v>
       </c>
+      <c r="Q84">
+        <v>17.47</v>
+      </c>
+      <c r="R84">
+        <v>15.3</v>
+      </c>
+      <c r="S84">
+        <v>18.79</v>
+      </c>
       <c r="V84" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
       </c>
       <c r="Y84">
         <v>0</v>
@@ -6100,22 +7591,25 @@
       <c r="Z84">
         <v>8.382412910461426</v>
       </c>
-      <c r="AA84" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C85">
         <v>688668</v>
       </c>
       <c r="D85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E85">
         <v>-1.33</v>
@@ -6133,7 +7627,7 @@
         <v>61544.03</v>
       </c>
       <c r="J85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K85">
         <v>7</v>
@@ -6153,8 +7647,23 @@
       <c r="P85">
         <v>-0.29</v>
       </c>
+      <c r="Q85">
+        <v>5.15</v>
+      </c>
+      <c r="R85">
+        <v>81.78</v>
+      </c>
+      <c r="S85">
+        <v>5.25</v>
+      </c>
       <c r="V85" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
       </c>
       <c r="Y85">
         <v>0</v>
@@ -6162,8 +7671,11 @@
       <c r="Z85">
         <v>2.976523399353027</v>
       </c>
-      <c r="AA85" t="s">
-        <v>164</v>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
